--- a/biology/Médecine/Muscle_infra-épineux/Muscle_infra-épineux.xlsx
+++ b/biology/Médecine/Muscle_infra-épineux/Muscle_infra-épineux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscle_infra-%C3%A9pineux</t>
+          <t>Muscle_infra-épineux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle infra-épineux (ou muscle sous-épineux) est un muscle plat et triangulaire de la loge postérieure de l'épaule. Avec les muscles sous-scapulaire, supra-épineux et petit rond, il compose la coiffe des rotateurs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscle_infra-%C3%A9pineux</t>
+          <t>Muscle_infra-épineux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle infra-épineux se fixe sur les deux tiers internes de la fosse infra-épineuse située sous l'épine de la scapula.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Muscle_infra-%C3%A9pineux</t>
+          <t>Muscle_infra-épineux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle infra-épineux est oblique en haut et en dehors. Le tendon du muscle sous-épineux glisse sous la face postérieure de l'articulation gléno-humérale dont il est séparé par la bourse subtendineuse du muscle infra-épineux.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Muscle_infra-%C3%A9pineux</t>
+          <t>Muscle_infra-épineux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle infra-épineux se termine sur la face postérieure du grand tubercule de l'humérus.
 </t>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscle_infra-%C3%A9pineux</t>
+          <t>Muscle_infra-épineux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,7 +622,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle infra-épineux est innervé par le nerf supra-scapulaire (racines C5-C6).
 </t>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscle_infra-%C3%A9pineux</t>
+          <t>Muscle_infra-épineux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,9 +655,11 @@
           <t>Action mécanique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le muscle infra-épineux est adducteur et rotateur externe du bras, il maintient la tête humérale dans la cavité glénoïdale lors des mouvements de l'articulation[1], Il est abducteur de la scapula, quand le bras est fixe.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le muscle infra-épineux est adducteur et rotateur externe du bras, il maintient la tête humérale dans la cavité glénoïdale lors des mouvements de l'articulation, Il est abducteur de la scapula, quand le bras est fixe.
 </t>
         </is>
       </c>
